--- a/files/documentation/presentation/Presentation-Timeline.xlsx
+++ b/files/documentation/presentation/Presentation-Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A48063-0F8F-4429-A904-9CF6829287EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1DFB1-6D42-41D5-8989-2A372EA5897E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7290" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Day</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Terminare Context si Problema</t>
+  </si>
+  <si>
+    <t>29/6/2024</t>
+  </si>
+  <si>
+    <t>Terminare Arhitectura, solutie, obiective</t>
   </si>
 </sst>
 </file>
@@ -376,7 +382,7 @@
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -420,10 +426,18 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
@@ -443,7 +457,7 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(C4:C8)</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/files/documentation/presentation/Presentation-Timeline.xlsx
+++ b/files/documentation/presentation/Presentation-Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1DFB1-6D42-41D5-8989-2A372EA5897E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3699FC-6B18-4AC8-BB73-9B1656BC4F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7290" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Terminare Arhitectura, solutie, obiective</t>
+  </si>
+  <si>
+    <t>Am scris toate slide-urile, mai am de completat 7 cu informatii</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -441,9 +444,15 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
@@ -457,7 +466,7 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(C4:C8)</f>
-        <v>3</v>
+        <v>3.8330000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/files/documentation/presentation/Presentation-Timeline.xlsx
+++ b/files/documentation/presentation/Presentation-Timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEX PROGRAMARE\SwapIt\files\documentation\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3699FC-6B18-4AC8-BB73-9B1656BC4F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEBB538-5D9C-4489-9B53-E06C052AB8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7290" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Day</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Am scris toate slide-urile, mai am de completat 7 cu informatii</t>
+  </si>
+  <si>
+    <t>Am terminat Autentificare, Paginarea rezultatelor, Cautarea, performanta</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -105,6 +108,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,7 +391,7 @@
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -456,9 +462,15 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="4">
+        <v>45329</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="2" t="s">
@@ -466,7 +478,7 @@
       </c>
       <c r="D9" s="2">
         <f>SUM(C4:C8)</f>
-        <v>3.8330000000000002</v>
+        <v>4.9930000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:4">
